--- a/permit/doc/测试-销售导入-预售许可证.xlsx
+++ b/permit/doc/测试-销售导入-预售许可证.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9900"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>基本信息</t>
   </si>
@@ -85,12 +85,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>佛禅国用（2015）第1101967号</t>
-  </si>
-  <si>
-    <t>绿地未来商业中心</t>
-  </si>
-  <si>
     <t>2015011901</t>
   </si>
   <si>
@@ -101,114 +95,6 @@
   </si>
   <si>
     <t>禅城区玉带路16号七座至十五座</t>
-  </si>
-  <si>
-    <t>2015012401</t>
-  </si>
-  <si>
-    <t>禅城区玉带路16号十六座至二十八座</t>
-  </si>
-  <si>
-    <t>2015013701</t>
-  </si>
-  <si>
-    <t>禅城区昌荣二街20、22号</t>
-  </si>
-  <si>
-    <t>2016003701</t>
-  </si>
-  <si>
-    <t>禅城区玉带路16号29至33座、37至42座、47座、48座</t>
-  </si>
-  <si>
-    <t>佛禅国用（2013）第1209300号</t>
-  </si>
-  <si>
-    <t>兆阳大厦</t>
-  </si>
-  <si>
-    <t>2016000801</t>
-  </si>
-  <si>
-    <t>禅城区同济东路66号二座</t>
-  </si>
-  <si>
-    <t>佛禅国用(2015)第1100547号</t>
-  </si>
-  <si>
-    <t>童梦家园</t>
-  </si>
-  <si>
-    <t>2015012501</t>
-  </si>
-  <si>
-    <t>禅城区季华一路29号九座</t>
-  </si>
-  <si>
-    <t>2015013101</t>
-  </si>
-  <si>
-    <t>禅城区季华一路29号八座</t>
-  </si>
-  <si>
-    <t>2015012601</t>
-  </si>
-  <si>
-    <t>禅城区季华一路29号一座</t>
-  </si>
-  <si>
-    <t>2016002101</t>
-  </si>
-  <si>
-    <t>禅城区季华一路29号二座</t>
-  </si>
-  <si>
-    <t>2016003201</t>
-  </si>
-  <si>
-    <t>禅城区季华一路29号三座</t>
-  </si>
-  <si>
-    <t>佛禅国用(2015)第1100547</t>
-  </si>
-  <si>
-    <t>2016004101</t>
-  </si>
-  <si>
-    <t>禅城区季华一路29号五座</t>
-  </si>
-  <si>
-    <t>佛禅国用（2011）第1206770号</t>
-  </si>
-  <si>
-    <t>东海国际商务公馆</t>
-  </si>
-  <si>
-    <t>QK20140021</t>
-  </si>
-  <si>
-    <t>禅城区佛山大道北36号地下停车场</t>
-  </si>
-  <si>
-    <t>佛禅国用（2011）1206770号</t>
-  </si>
-  <si>
-    <t>2013010901</t>
-  </si>
-  <si>
-    <t>禅城区佛山大道北36号</t>
-  </si>
-  <si>
-    <t>QK20140022</t>
-  </si>
-  <si>
-    <t>禅城区佛山大道北40号二层</t>
-  </si>
-  <si>
-    <t>2013003501</t>
-  </si>
-  <si>
-    <t>禅城区佛山大道北40号一座、二座</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -232,6 +118,38 @@
   </si>
   <si>
     <t>其它</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-1002-1002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-1002-1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地未来商业中心A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地未来商业中心B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-1002-1003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地未来商业中心C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015012302</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号七座至十六七座</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +870,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -1082,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>10</v>
@@ -1094,16 +1012,16 @@
         <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -1156,17 +1074,17 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="12">
         <v>29584.66</v>
@@ -1215,17 +1133,17 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="12">
         <v>24977.74</v>
@@ -1274,23 +1192,23 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F7" s="12">
-        <v>25843.74</v>
+        <v>10000</v>
       </c>
       <c r="G7" s="12">
-        <v>740.72</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
         <v>0</v>
@@ -1301,10 +1219,10 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="M7" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N7" s="12">
         <v>0</v>
@@ -1313,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="12">
-        <v>7209.87</v>
+        <v>20550.400000000001</v>
       </c>
       <c r="Q7" s="12">
         <v>0</v>
@@ -1325,776 +1243,360 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>4430.51</v>
-      </c>
-      <c r="H8" s="12">
-        <v>36669.67</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>60</v>
-      </c>
-      <c r="N8" s="12">
-        <v>667</v>
-      </c>
-      <c r="O8" s="12">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>0</v>
-      </c>
-      <c r="R8" s="12">
-        <v>0</v>
-      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-      <c r="V8" s="12">
-        <v>0</v>
-      </c>
+      <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="12">
-        <v>39576.83</v>
-      </c>
-      <c r="G9" s="12">
-        <v>950.87</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12">
-        <v>348</v>
-      </c>
-      <c r="M9" s="12">
-        <v>7</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
-        <v>88.990000000005196</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>0</v>
-      </c>
-      <c r="R9" s="12">
-        <v>0</v>
-      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="12">
-        <v>1</v>
-      </c>
+      <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>42926.52</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
-        <v>965</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>4383.7</v>
-      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="12">
-        <v>0</v>
-      </c>
+      <c r="S10" s="12"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
-      <c r="V10" s="12">
-        <v>0</v>
-      </c>
-      <c r="W10" s="12">
-        <v>101</v>
-      </c>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="12">
-        <v>5637.88</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1121.8800000000001</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="12">
-        <v>62</v>
-      </c>
-      <c r="M11" s="12">
-        <v>9</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="12">
-        <v>5637.88</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>0</v>
-      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="12">
-        <v>0</v>
-      </c>
+      <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
-      <c r="V11" s="12">
-        <v>62</v>
-      </c>
-      <c r="W11" s="12">
-        <v>0</v>
-      </c>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="12">
-        <v>5087.0600000000004</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1839.91</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="12">
-        <v>61</v>
-      </c>
-      <c r="M12" s="12">
-        <v>14</v>
-      </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="12">
-        <v>4994.8500000000004</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>0</v>
-      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="12">
-        <v>0</v>
-      </c>
+      <c r="S12" s="12"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
-      <c r="V12" s="12">
-        <v>60</v>
-      </c>
-      <c r="W12" s="12">
-        <v>0</v>
-      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="12">
-        <v>10571.5</v>
-      </c>
-      <c r="G13" s="12">
-        <v>1329.29</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="12">
-        <v>108</v>
-      </c>
-      <c r="M13" s="12">
-        <v>12</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="12">
-        <v>10171.31</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>0</v>
-      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="12">
-        <v>0</v>
-      </c>
+      <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
-      <c r="V13" s="12">
-        <v>104</v>
-      </c>
-      <c r="W13" s="12">
-        <v>0</v>
-      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="12">
-        <v>10099.42</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1844.97</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="12">
-        <v>107</v>
-      </c>
-      <c r="M14" s="12">
-        <v>18</v>
-      </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="12">
-        <v>9897.01</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>0</v>
-      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="12">
-        <v>0</v>
-      </c>
+      <c r="S14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
-      <c r="V14" s="12">
-        <v>105</v>
-      </c>
-      <c r="W14" s="12">
-        <v>0</v>
-      </c>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="12">
-        <v>8539.44</v>
-      </c>
-      <c r="G15" s="12">
-        <v>497.35</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="12">
-        <v>84</v>
-      </c>
-      <c r="M15" s="12">
-        <v>9</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0</v>
-      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="12">
-        <v>7556.82</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>0</v>
-      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="12">
-        <v>0</v>
-      </c>
+      <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
-      <c r="V15" s="12">
-        <v>75</v>
-      </c>
-      <c r="W15" s="12">
-        <v>0</v>
-      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="12">
-        <v>8539.7199999999993</v>
-      </c>
-      <c r="G16" s="12">
-        <v>435.35</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="12">
-        <v>84</v>
-      </c>
-      <c r="M16" s="12">
-        <v>8</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0</v>
-      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="12">
-        <v>5468.11</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>0</v>
-      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="12">
-        <v>0</v>
-      </c>
+      <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="12">
-        <v>53</v>
-      </c>
-      <c r="W16" s="12">
-        <v>0</v>
-      </c>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>2338.02</v>
-      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="12">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12">
-        <v>0</v>
-      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>0</v>
-      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
-      <c r="S17" s="12">
-        <v>2338.02</v>
-      </c>
+      <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="12">
-        <v>0</v>
-      </c>
-      <c r="W17" s="12">
-        <v>0</v>
-      </c>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>2599.58</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="12">
-        <v>26</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0</v>
-      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>2599.58</v>
-      </c>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="12">
-        <v>0</v>
-      </c>
+      <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="12">
-        <v>0</v>
-      </c>
-      <c r="W18" s="12">
-        <v>26</v>
-      </c>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1777.58</v>
-      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>0</v>
-      </c>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="12">
-        <v>1777.58</v>
-      </c>
+      <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="12">
-        <v>0</v>
-      </c>
-      <c r="W19" s="12">
-        <v>0</v>
-      </c>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <v>22974.01</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>556</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>22974.01</v>
-      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="12">
-        <v>0</v>
-      </c>
+      <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
-      <c r="V20" s="12">
-        <v>0</v>
-      </c>
-      <c r="W20" s="12">
-        <v>556</v>
-      </c>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
     </row>

--- a/permit/doc/测试-销售导入-预售许可证.xlsx
+++ b/permit/doc/测试-销售导入-预售许可证.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9900"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>基本信息</t>
   </si>
@@ -94,9 +94,6 @@
     <t>2015012301</t>
   </si>
   <si>
-    <t>禅城区玉带路16号七座至十五座</t>
-  </si>
-  <si>
     <t>项目名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -125,10 +122,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>a-1002-1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>绿地未来商业中心A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -150,6 +143,22 @@
   </si>
   <si>
     <t>禅城区玉带路16号七座至十六七座</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-1001-1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015011902</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号七座至十五座A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号七座至十五座B</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -867,10 +876,10 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -1000,10 +1009,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>10</v>
@@ -1012,16 +1021,16 @@
         <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -1074,10 +1083,10 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>20</v>
@@ -1087,7 +1096,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="12">
-        <v>29584.66</v>
+        <v>12345678</v>
       </c>
       <c r="G5" s="12">
         <v>5728.43</v>
@@ -1133,20 +1142,20 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="C6" s="13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F6" s="12">
-        <v>24977.74</v>
+        <v>87654321</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
@@ -1192,20 +1201,20 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="12">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
@@ -1250,28 +1259,60 @@
       <c r="Y7" s="12"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="L8" s="12">
+        <v>198</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>20550.400000000001</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="V8" s="12">
+        <v>163</v>
+      </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
@@ -1304,11 +1345,11 @@
       <c r="Y9" s="12"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1762,61 +1803,61 @@
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+    </row>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="17"/>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="20"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="17"/>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="18"/>
@@ -1872,36 +1913,63 @@
       <c r="X30" s="19"/>
       <c r="Y30" s="20"/>
     </row>
-    <row r="31" spans="1:25" ht="50.1" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="23"/>
+    <row r="31" spans="1:25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="20"/>
+    </row>
+    <row r="32" spans="1:25" ht="50.1" customHeight="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A27:Y31"/>
+    <mergeCell ref="A28:Y32"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:O2"/>

--- a/permit/doc/测试-销售导入-预售许可证.xlsx
+++ b/permit/doc/测试-销售导入-预售许可证.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>基本信息</t>
   </si>
@@ -160,6 +160,19 @@
   <si>
     <t>禅城区玉带路16号七座至十五座B</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-24</t>
+  </si>
+  <si>
+    <t>2016-05-25</t>
+  </si>
+  <si>
+    <t>2016-05-26</t>
   </si>
 </sst>
 </file>
@@ -461,7 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,6 +580,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -879,7 +895,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="A1:XFD1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -887,7 +903,7 @@
     <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="49.375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
@@ -1091,7 +1107,9 @@
       <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
@@ -1150,7 +1168,9 @@
       <c r="C6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="11" t="s">
         <v>38</v>
       </c>
@@ -1209,7 +1229,9 @@
       <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="E7" s="11" t="s">
         <v>39</v>
       </c>
@@ -1268,7 +1290,9 @@
       <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="38" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="11" t="s">
         <v>35</v>
       </c>

--- a/permit/doc/测试-销售导入-预售许可证.xlsx
+++ b/permit/doc/测试-销售导入-预售许可证.xlsx
@@ -94,10 +94,6 @@
     <t>2015012301</t>
   </si>
   <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>预售证号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -173,6 +169,10 @@
   </si>
   <si>
     <t>2016-05-26</t>
+  </si>
+  <si>
+    <t>销售项目名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,6 +512,9 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -580,9 +583,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -895,21 +895,22 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A28" sqref="A28:Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.25" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" customWidth="1"/>
     <col min="11" max="15" width="5.75" customWidth="1"/>
-    <col min="16" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.75" customWidth="1"/>
     <col min="19" max="19" width="5.75" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.75" customWidth="1"/>
@@ -918,117 +919,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="35.1" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="35" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="32" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="33" t="s">
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="34" t="s">
+      <c r="U3" s="34"/>
+      <c r="V3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>10</v>
@@ -1037,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -1099,16 +1100,16 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>40</v>
+      <c r="D5" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>21</v>
@@ -1160,19 +1161,19 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="12">
         <v>87654321</v>
@@ -1221,19 +1222,19 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>42</v>
+      <c r="D7" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="12">
         <v>10000000</v>
@@ -1282,19 +1283,19 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="F8" s="12">
         <v>10000</v>
@@ -1855,141 +1856,141 @@
       <c r="Y27" s="12"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="21"/>
     </row>
     <row r="30" spans="1:25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="21"/>
     </row>
     <row r="31" spans="1:25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="20"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="21"/>
     </row>
     <row r="32" spans="1:25" ht="50.1" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="23"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
